--- a/MAULLON, JAENA.xlsx
+++ b/MAULLON, JAENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C9F67-3160-4729-BE0E-C28C1D30C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8D19A-4AC9-43E5-9FA7-394086A8F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +263,15 @@
   </si>
   <si>
     <t>12/6,9,12,13,14</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/6,11,13,18,25</t>
   </si>
 </sst>
 </file>
@@ -2719,9 +2720,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2886,7 +2887,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.050000000000004</v>
+        <v>46.300000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2896,7 +2897,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.959000000000003</v>
+        <v>73.209000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4418,7 +4419,9 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="48" t="s">
+        <v>76</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4434,20 +4437,30 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="A82" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39">
+        <v>5</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>

--- a/MAULLON, JAENA.xlsx
+++ b/MAULLON, JAENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8D19A-4AC9-43E5-9FA7-394086A8F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F9C36-6320-4F9C-A223-0499EDF7DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>1/6,11,13,18,25</t>
+  </si>
+  <si>
+    <t>2/9,17,28</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2725,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2887,7 +2890,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.300000000000004</v>
+        <v>43.300000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4463,10 +4466,16 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>3</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4476,7 +4485,9 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
